--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2473.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2473.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.162368580668195</v>
+        <v>1.403199791908264</v>
       </c>
       <c r="B1">
-        <v>2.76684522151684</v>
+        <v>1.971433162689209</v>
       </c>
       <c r="C1">
-        <v>6.032333311636753</v>
+        <v>2.334450483322144</v>
       </c>
       <c r="D1">
-        <v>3.71183348610772</v>
+        <v>4.812489986419678</v>
       </c>
       <c r="E1">
-        <v>0.942615409695622</v>
+        <v>0.9392110705375671</v>
       </c>
     </row>
   </sheetData>
